--- a/data/trans_orig/P37C2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1308</v>
+        <v>806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9924</v>
+        <v>9579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006475353242156021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002381052724033118</v>
+        <v>0.001467524445730658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01806289866552417</v>
+        <v>0.01743523881312483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4393</v>
+        <v>4323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002664567389208985</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009008155934921382</v>
+        <v>0.008864586370286719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>4857</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1942</v>
+        <v>1972</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10742</v>
+        <v>10560</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00468343812434736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001872343229090166</v>
+        <v>0.001901560036466253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01035744500097283</v>
+        <v>0.01018229358118189</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2072</v>
+        <v>1828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11764</v>
+        <v>11836</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01005963043855552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003771486625793501</v>
+        <v>0.003327790555205439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0214115667601148</v>
+        <v>0.02154273022638579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6719</v>
+        <v>7932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003806542020085215</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01377788673357306</v>
+        <v>0.01626582294078968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>7383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3376</v>
+        <v>3256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14555</v>
+        <v>13332</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007119291069607274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003255259562834774</v>
+        <v>0.003139818322674458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01403474483431838</v>
+        <v>0.01285486358723756</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>20918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12650</v>
+        <v>12700</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33591</v>
+        <v>32548</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03807274575557726</v>
+        <v>0.03807274575557727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02302448118308748</v>
+        <v>0.02311556941851637</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06113802668699396</v>
+        <v>0.05923890667467968</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -904,19 +904,19 @@
         <v>15248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9718</v>
+        <v>9547</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24368</v>
+        <v>23311</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03126660951041576</v>
+        <v>0.03126660951041577</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01992861962685512</v>
+        <v>0.01957736709518857</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04996842498588427</v>
+        <v>0.04780081753806403</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -925,19 +925,19 @@
         <v>36166</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26857</v>
+        <v>26043</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49018</v>
+        <v>49690</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0348723511644882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02589657174142659</v>
+        <v>0.02511183786163876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04726451805191029</v>
+        <v>0.04791247879354742</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>91909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75151</v>
+        <v>74189</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111412</v>
+        <v>109844</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1672803270884423</v>
+        <v>0.1672803270884424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1367791326274369</v>
+        <v>0.135029486148937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2027772545280191</v>
+        <v>0.1999241325149546</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -975,19 +975,19 @@
         <v>77075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65420</v>
+        <v>65201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90933</v>
+        <v>91852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1580488727480465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1341496040446219</v>
+        <v>0.1336993867069624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1864667616192803</v>
+        <v>0.1883499886695941</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -996,19 +996,19 @@
         <v>168984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146623</v>
+        <v>147567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>192704</v>
+        <v>192715</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1629394947167878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1413785158728326</v>
+        <v>0.1422890971368404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1858115045651831</v>
+        <v>0.1858223064090932</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>427518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406328</v>
+        <v>408593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446718</v>
+        <v>446274</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7781119434752687</v>
+        <v>0.7781119434752688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7395449459811758</v>
+        <v>0.7436676903237985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8130579972600811</v>
+        <v>0.8122491254126529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -1046,19 +1046,19 @@
         <v>392187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>376814</v>
+        <v>375953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405675</v>
+        <v>405227</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8042134083322435</v>
+        <v>0.8042134083322434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7726906918873941</v>
+        <v>0.7709255999060829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.831872412942295</v>
+        <v>0.830953100816658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>972</v>
@@ -1067,19 +1067,19 @@
         <v>819705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>794652</v>
+        <v>793044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>845161</v>
+        <v>843657</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7903854249247693</v>
+        <v>0.7903854249247694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7662290550190284</v>
+        <v>0.7646778167560252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8149315533488368</v>
+        <v>0.8134812407790807</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8142</v>
+        <v>8435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003141508897247625</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01692417659110869</v>
+        <v>0.01753228229125979</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8796</v>
+        <v>9886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004269599491243361</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02093159564643229</v>
+        <v>0.02352575341473634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11995</v>
+        <v>10946</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003667462324038674</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01330739933535124</v>
+        <v>0.01214366703635079</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7325</v>
+        <v>8453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004322540587632867</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01522563917440389</v>
+        <v>0.01756991828650226</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>4007</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1581</v>
+        <v>1635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8512</v>
+        <v>8387</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009535449073126612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003762842198378604</v>
+        <v>0.003890842207463061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02025472331885571</v>
+        <v>0.01995735499526573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>6087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2626</v>
+        <v>2924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11143</v>
+        <v>11931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006752972235664087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002913106842247578</v>
+        <v>0.003244548239011955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01236219982023617</v>
+        <v>0.01323685122655825</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>21687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13169</v>
+        <v>13922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32575</v>
+        <v>33008</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04507675559893069</v>
+        <v>0.04507675559893068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02737136576332783</v>
+        <v>0.02893777963929856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06770732437465349</v>
+        <v>0.0686079046068704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1334,19 +1334,19 @@
         <v>19278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12788</v>
+        <v>12068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28884</v>
+        <v>30717</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04587407778609354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03043133235549604</v>
+        <v>0.02871619401317727</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06873195949832053</v>
+        <v>0.07309464790586005</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1355,19 +1355,19 @@
         <v>40965</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30045</v>
+        <v>30076</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54582</v>
+        <v>55390</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04544849377211186</v>
+        <v>0.04544849377211185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03333388650834172</v>
+        <v>0.03336817743736263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06055572735938137</v>
+        <v>0.06145261482163939</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>86840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69933</v>
+        <v>68741</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102839</v>
+        <v>103618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1804988173003686</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1453569854850719</v>
+        <v>0.1428805933801293</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2137545911740643</v>
+        <v>0.2153740820317476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -1405,19 +1405,19 @@
         <v>89218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74785</v>
+        <v>74933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103707</v>
+        <v>103243</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2123036455043464</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1779577597354295</v>
+        <v>0.1783119134001405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2467822549557395</v>
+        <v>0.2456768391873549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>219</v>
@@ -1426,19 +1426,19 @@
         <v>176058</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155825</v>
+        <v>155425</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201490</v>
+        <v>200822</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.195327288055658</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.172880184274961</v>
+        <v>0.1724361331585872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2235431333046027</v>
+        <v>0.222802533321393</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>368992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351026</v>
+        <v>350624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387902</v>
+        <v>387789</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7669603776158204</v>
+        <v>0.7669603776158203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7296194284473725</v>
+        <v>0.7287826617474843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8062658699369797</v>
+        <v>0.8060314443336999</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>427</v>
@@ -1476,19 +1476,19 @@
         <v>305941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>290006</v>
+        <v>288536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321237</v>
+        <v>322929</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.72801722814519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6900993575537909</v>
+        <v>0.6866023945973613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7644164047481267</v>
+        <v>0.768442746002524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>790</v>
@@ -1497,19 +1497,19 @@
         <v>674932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>648210</v>
+        <v>650297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698018</v>
+        <v>698335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7488037836125274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7191572677699727</v>
+        <v>0.7214721815392218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7744166332935385</v>
+        <v>0.7747684684707468</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>2818</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7490</v>
+        <v>7784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006024564486185079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001751137630269064</v>
+        <v>0.001789016167474919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01601263590795342</v>
+        <v>0.01664260629424939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1622,19 +1622,19 @@
         <v>2357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8676</v>
+        <v>9252</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01270630741090894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.003679075514018305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04677210361660777</v>
+        <v>0.04987856617546861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1643,19 +1643,19 @@
         <v>5175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1856</v>
+        <v>1839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13157</v>
+        <v>13548</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007921963036588243</v>
+        <v>0.007921963036588245</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002840770979300784</v>
+        <v>0.002815498808275779</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02014072907932793</v>
+        <v>0.0207396735283264</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3481</v>
+        <v>3448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18545</v>
+        <v>19885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01866775263932297</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007441502713084456</v>
+        <v>0.007372237856044993</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03964945705810678</v>
+        <v>0.042513894354765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3331</v>
+        <v>3229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003480378310855367</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01795780921445988</v>
+        <v>0.01740669380024799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1714,19 +1714,19 @@
         <v>9377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4533</v>
+        <v>4206</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18585</v>
+        <v>18518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01435503029129046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006939879354660282</v>
+        <v>0.00643941723313952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02845063500068886</v>
+        <v>0.0283484747536672</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>38653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27670</v>
+        <v>27527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52666</v>
+        <v>55772</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08263928409344419</v>
+        <v>0.0826392840934442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05915808290919988</v>
+        <v>0.05885225065268636</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1125980563416393</v>
+        <v>0.1192399989738418</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1764,19 +1764,19 @@
         <v>9028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5134</v>
+        <v>4967</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13969</v>
+        <v>14699</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04866879710186266</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02767982151496448</v>
+        <v>0.02677704695861454</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07530629611563783</v>
+        <v>0.07924260058548567</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1785,19 +1785,19 @@
         <v>47681</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35459</v>
+        <v>35752</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>64377</v>
+        <v>63738</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07299276618629495</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05428243030642221</v>
+        <v>0.05473170543960729</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09855245211165356</v>
+        <v>0.09757390476084039</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>104865</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87986</v>
+        <v>87324</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123236</v>
+        <v>125345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2241989095138921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.188111963515844</v>
+        <v>0.1866971902263207</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2634754840502741</v>
+        <v>0.2679846282225868</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1835,19 +1835,19 @@
         <v>37778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29801</v>
+        <v>29206</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47036</v>
+        <v>47479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2036590964633556</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1606579569769</v>
+        <v>0.1574494246943569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2535679399162761</v>
+        <v>0.2559582681272882</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -1856,19 +1856,19 @@
         <v>142643</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121896</v>
+        <v>124399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161702</v>
+        <v>164146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2183662679491538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1866048408722035</v>
+        <v>0.1904373525564443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2475420261844217</v>
+        <v>0.2512842903658581</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>312665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290849</v>
+        <v>290307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333648</v>
+        <v>331704</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6684694892671555</v>
+        <v>0.6684694892671557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6218260849079047</v>
+        <v>0.6206688478489838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7133292778134109</v>
+        <v>0.7091745520702853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1906,19 +1906,19 @@
         <v>135688</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>125136</v>
+        <v>125051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>145118</v>
+        <v>145124</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7314854207130174</v>
+        <v>0.7314854207130175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6746012027070651</v>
+        <v>0.6741462683100435</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7823223779945742</v>
+        <v>0.7823582180052439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>538</v>
@@ -1927,19 +1927,19 @@
         <v>448353</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424875</v>
+        <v>421829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>470216</v>
+        <v>469764</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6863639725366724</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6504228087456456</v>
+        <v>0.6457602097753713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7198335504942907</v>
+        <v>0.719141665466711</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4130</v>
+        <v>4197</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0007372810350291308</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.003679449749239914</v>
+        <v>0.003739048729100589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2052,19 +2052,19 @@
         <v>4700</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1635</v>
+        <v>1501</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12320</v>
+        <v>11991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005479183236340899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001905844400988538</v>
+        <v>0.001750514319391503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01436413425123352</v>
+        <v>0.01398034519152157</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>5527</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12723</v>
+        <v>13075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002791141693981082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001096403834287077</v>
+        <v>0.00109483388265377</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006424738091844998</v>
+        <v>0.006602367385657839</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>14123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8514</v>
+        <v>7726</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23379</v>
+        <v>22205</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01258129381291182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007584200858670894</v>
+        <v>0.006882672499504618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0208262180388213</v>
+        <v>0.01978055008879133</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2123,19 +2123,19 @@
         <v>3131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7196</v>
+        <v>7200</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.003650269531031821</v>
+        <v>0.00365026953103182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001440161387971183</v>
+        <v>0.00143489241661804</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008389598294002107</v>
+        <v>0.008394672473139545</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2144,19 +2144,19 @@
         <v>17254</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10700</v>
+        <v>11134</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27266</v>
+        <v>27971</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008712998213811602</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005403394313369102</v>
+        <v>0.00562227906421214</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01376865408740405</v>
+        <v>0.01412461755631027</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>49293</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34560</v>
+        <v>36059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67017</v>
+        <v>67990</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04391124789241733</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03078670596490487</v>
+        <v>0.03212225195554681</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05969969497323218</v>
+        <v>0.06056696267393583</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -2194,19 +2194,19 @@
         <v>33011</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23902</v>
+        <v>24317</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44848</v>
+        <v>43804</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03848650489028578</v>
+        <v>0.03848650489028577</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02786659881488992</v>
+        <v>0.02835015951035593</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0522874320008903</v>
+        <v>0.05106983955126607</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>90</v>
@@ -2215,19 +2215,19 @@
         <v>82304</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66228</v>
+        <v>65981</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104829</v>
+        <v>104901</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04156162831698181</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03344364636076461</v>
+        <v>0.03331881832104763</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05293604933034213</v>
+        <v>0.05297268116346521</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>267557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>239245</v>
+        <v>240479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>299241</v>
+        <v>300593</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2383444530116779</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.213123393823867</v>
+        <v>0.2142227026768634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2665688569883721</v>
+        <v>0.2677732578012346</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -2265,19 +2265,19 @@
         <v>162306</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144101</v>
+        <v>143471</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181074</v>
+        <v>182632</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1892287626986703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1680039766700613</v>
+        <v>0.1672694221477039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2111100903355346</v>
+        <v>0.2129267457851166</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>515</v>
@@ -2286,19 +2286,19 @@
         <v>429863</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>394815</v>
+        <v>396274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>467015</v>
+        <v>468058</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2170709682815948</v>
+        <v>0.2170709682815947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1993727749842788</v>
+        <v>0.2001095213853018</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2358321551167686</v>
+        <v>0.236358835686438</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>790764</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>757991</v>
+        <v>757637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>822083</v>
+        <v>822086</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7044257242479639</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6752312085820578</v>
+        <v>0.6749158514628452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7323256814746144</v>
+        <v>0.7323280978882527</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>914</v>
@@ -2336,19 +2336,19 @@
         <v>654575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>634582</v>
+        <v>635706</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>674176</v>
+        <v>676570</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7631552796436714</v>
+        <v>0.7631552796436711</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7398458270265341</v>
+        <v>0.7411561246102203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.78600780401196</v>
+        <v>0.7887989206190942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1703</v>
@@ -2357,19 +2357,19 @@
         <v>1445339</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1404444</v>
+        <v>1399090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1482121</v>
+        <v>1481452</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7298632634936308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7092124513627834</v>
+        <v>0.7065084613431977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7484377107918918</v>
+        <v>0.7480996214874428</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6021</v>
+        <v>6052</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002123832279797226</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01080911190242063</v>
+        <v>0.0108640033412347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2482,19 +2482,19 @@
         <v>1644</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4630</v>
+        <v>5082</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001990088152880372</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0005173477711309045</v>
+        <v>0.0005212269409521153</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005606828760723089</v>
+        <v>0.006153265299865231</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2503,19 +2503,19 @@
         <v>2827</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>715</v>
+        <v>871</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8909</v>
+        <v>7373</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002043962399362349</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0005170421946324056</v>
+        <v>0.0006299269542470494</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006442060015737856</v>
+        <v>0.005331147182583354</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>9321</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4692</v>
+        <v>4651</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17162</v>
+        <v>17644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01673173260598853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008421853489216704</v>
+        <v>0.008348576022978159</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03080834017021858</v>
+        <v>0.03167265514761968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2553,19 +2553,19 @@
         <v>5499</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2436</v>
+        <v>2243</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11066</v>
+        <v>10817</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006658719896491755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002950213128618895</v>
+        <v>0.002716187512410624</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01339918353364185</v>
+        <v>0.01309740859282297</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -2574,19 +2574,19 @@
         <v>14820</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9282</v>
+        <v>8813</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24073</v>
+        <v>24275</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01071628849436282</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006711603568200865</v>
+        <v>0.006372690234300227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01740713999257634</v>
+        <v>0.01755346088173247</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>51076</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37900</v>
+        <v>37336</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>68208</v>
+        <v>69818</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09168790485345348</v>
+        <v>0.09168790485345346</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06803446583075907</v>
+        <v>0.06702300214683647</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1224423794984029</v>
+        <v>0.125331744069959</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>65</v>
@@ -2624,19 +2624,19 @@
         <v>42894</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33352</v>
+        <v>32396</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55006</v>
+        <v>54013</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05193876370406011</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04038490654873785</v>
+        <v>0.0392265147717142</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06660464079774434</v>
+        <v>0.06540197922069249</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>110</v>
@@ -2645,19 +2645,19 @@
         <v>93970</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>78117</v>
+        <v>77495</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>114566</v>
+        <v>112920</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06795034549905421</v>
+        <v>0.06795034549905422</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05648645052152537</v>
+        <v>0.05603665246183961</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08284321081301962</v>
+        <v>0.08165296457145872</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>126080</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>104190</v>
+        <v>105148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147575</v>
+        <v>148845</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2263294347336093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1870329625035005</v>
+        <v>0.1887530520348833</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2649158131797772</v>
+        <v>0.2671957381365938</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>275</v>
@@ -2695,19 +2695,19 @@
         <v>171758</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154005</v>
+        <v>153948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>190915</v>
+        <v>192974</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2079734691964263</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.186477998586619</v>
+        <v>0.1864082852481613</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2311707026905224</v>
+        <v>0.2336637493991982</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>397</v>
@@ -2716,19 +2716,19 @@
         <v>297838</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>271899</v>
+        <v>272392</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>326877</v>
+        <v>326652</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2153675420021776</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.196610774207061</v>
+        <v>0.196967887609908</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2363660073985755</v>
+        <v>0.2362031881698111</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>369405</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>345813</v>
+        <v>343766</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>394113</v>
+        <v>392984</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6631270955271514</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6207759936005417</v>
+        <v>0.6171015315599145</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7074809149950746</v>
+        <v>0.7054546610143912</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>931</v>
@@ -2766,19 +2766,19 @@
         <v>604068</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>581963</v>
+        <v>580977</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>623239</v>
+        <v>625044</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7314389590501416</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7046720797786422</v>
+        <v>0.7034785299565223</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7546518231600555</v>
+        <v>0.7568368485231017</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1294</v>
@@ -2787,19 +2787,19 @@
         <v>973473</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>938626</v>
+        <v>942432</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1002063</v>
+        <v>1003906</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.703921861605043</v>
+        <v>0.7039218616050432</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6787239553027875</v>
+        <v>0.6814755615268216</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7245955299717074</v>
+        <v>0.7259278483981375</v>
       </c>
     </row>
     <row r="33">
@@ -2894,16 +2894,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8077</v>
+        <v>6772</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.006391046097632076</v>
+        <v>0.006391046097632077</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03483148459853608</v>
+        <v>0.02920449594346397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4257</v>
+        <v>4208</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001469285351355845</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005085419418028004</v>
+        <v>0.005026605872920523</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2933,19 +2933,19 @@
         <v>2712</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9039</v>
+        <v>9056</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002536863064242716</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.000499407152332703</v>
+        <v>0.0005025477624466429</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008455690759686286</v>
+        <v>0.008470987908546107</v>
       </c>
     </row>
     <row r="35">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3746</v>
+        <v>3597</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00306475709009746</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01615380690369621</v>
+        <v>0.01551014790831779</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2983,19 +2983,19 @@
         <v>4497</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1625</v>
+        <v>1611</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10931</v>
+        <v>10794</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005372184330684013</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001941409955401546</v>
+        <v>0.001924072306014515</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01305812491258426</v>
+        <v>0.0128935617045984</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -3004,19 +3004,19 @@
         <v>5208</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1940</v>
+        <v>2322</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11005</v>
+        <v>11617</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004871680949242318</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001814728408994173</v>
+        <v>0.002172490520577581</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01029412199309922</v>
+        <v>0.01086709093611694</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>19472</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8209</v>
+        <v>8775</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39684</v>
+        <v>37606</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08397591997890928</v>
+        <v>0.0839759199789093</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03540188907958926</v>
+        <v>0.03784481715827351</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1711402602979513</v>
+        <v>0.1621782350769104</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>54</v>
@@ -3054,19 +3054,19 @@
         <v>44543</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32702</v>
+        <v>32232</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62332</v>
+        <v>60662</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0532083709253152</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03906427359282497</v>
+        <v>0.03850244924102984</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07445866820548717</v>
+        <v>0.07246369039484538</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>62</v>
@@ -3075,19 +3075,19 @@
         <v>64015</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>46164</v>
+        <v>47754</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>86733</v>
+        <v>87804</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05988215117248025</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04318341251240272</v>
+        <v>0.04467050863960347</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08113279413829276</v>
+        <v>0.08213484118153271</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>67630</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>46981</v>
+        <v>48008</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>90156</v>
+        <v>90288</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2916583086148228</v>
+        <v>0.2916583086148229</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2026096555829365</v>
+        <v>0.2070390334541597</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3888020259768212</v>
+        <v>0.3893728375190741</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>260</v>
@@ -3125,19 +3125,19 @@
         <v>178827</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>157362</v>
+        <v>157190</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>200813</v>
+        <v>202993</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2136157906103331</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1879754092036519</v>
+        <v>0.1877701670800582</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2398799122817095</v>
+        <v>0.2424842045014437</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>292</v>
@@ -3146,19 +3146,19 @@
         <v>246457</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>216819</v>
+        <v>216406</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>278114</v>
+        <v>278298</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2305439708235226</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2028199957555361</v>
+        <v>0.2024339962728082</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2601573115399765</v>
+        <v>0.2603294861524858</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>142586</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>117278</v>
+        <v>118020</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>165685</v>
+        <v>164166</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6149099682185384</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5057696996259505</v>
+        <v>0.5089682474161726</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7145245016021964</v>
+        <v>0.7079772888571093</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>827</v>
@@ -3196,19 +3196,19 @@
         <v>608044</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>583757</v>
+        <v>581596</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>631440</v>
+        <v>632799</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.7263343687823117</v>
+        <v>0.7263343687823116</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6973224548244522</v>
+        <v>0.6947403625886316</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7542813846880615</v>
+        <v>0.7559052515686839</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>894</v>
@@ -3217,19 +3217,19 @@
         <v>750630</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>714314</v>
+        <v>713956</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>781419</v>
+        <v>783452</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7021653339905122</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6681938247900248</v>
+        <v>0.6678586414865173</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.730966104825132</v>
+        <v>0.7328675289242822</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>11380</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6034</v>
+        <v>6001</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19830</v>
+        <v>20855</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003337388671243524</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001769710266868808</v>
+        <v>0.001760012085859781</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005815605714897845</v>
+        <v>0.006116365633558454</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -3342,19 +3342,19 @@
         <v>13024</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6751</v>
+        <v>7366</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>21977</v>
+        <v>23883</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003603579597529944</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00186794551558634</v>
+        <v>0.002038101400022631</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006080945617230903</v>
+        <v>0.006608280299911399</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>26</v>
@@ -3363,19 +3363,19 @@
         <v>24404</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15911</v>
+        <v>15384</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>35841</v>
+        <v>35905</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.003474356167149785</v>
+        <v>0.003474356167149784</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002265301369084123</v>
+        <v>0.002190268816056216</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005102669828777359</v>
+        <v>0.005111850044958339</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>40493</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29390</v>
+        <v>29233</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56043</v>
+        <v>53994</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01187548850372983</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008619349964217983</v>
+        <v>0.008573337370468389</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01643602201295686</v>
+        <v>0.01583500906028995</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>28</v>
@@ -3413,19 +3413,19 @@
         <v>19636</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13330</v>
+        <v>13359</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>29971</v>
+        <v>29104</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005433252603120235</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003688265468515219</v>
+        <v>0.003696202876730297</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008292632696414328</v>
+        <v>0.008052825883600007</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>69</v>
@@ -3434,19 +3434,19 @@
         <v>60129</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>45768</v>
+        <v>46612</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>76613</v>
+        <v>76264</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.008560661316891503</v>
+        <v>0.008560661316891502</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006516040341921193</v>
+        <v>0.006636178858350885</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01090742061257879</v>
+        <v>0.01085779588643149</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>201100</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>173022</v>
+        <v>170195</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>235646</v>
+        <v>235314</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.05897737113285803</v>
+        <v>0.05897737113285801</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05074272957928278</v>
+        <v>0.0499136736700185</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06910881577836937</v>
+        <v>0.06901144476749137</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>222</v>
@@ -3484,19 +3484,19 @@
         <v>164001</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>142752</v>
+        <v>140338</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>189916</v>
+        <v>186621</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0453779158432012</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03949843364150416</v>
+        <v>0.03883056262836534</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05254824425619942</v>
+        <v>0.05163663133449166</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>397</v>
@@ -3505,19 +3505,19 @@
         <v>365101</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>326968</v>
+        <v>329345</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>409879</v>
+        <v>404593</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05197982481263074</v>
+        <v>0.05197982481263073</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04655069669468432</v>
+        <v>0.04688921657213897</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.058354904422643</v>
+        <v>0.05760225440940057</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>744881</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>690980</v>
+        <v>695857</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>798355</v>
+        <v>802325</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2184540900798888</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.202646226457314</v>
+        <v>0.2040765673750304</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2341366153222565</v>
+        <v>0.2353008317140044</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1099</v>
@@ -3555,19 +3555,19 @@
         <v>716961</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>677394</v>
+        <v>674140</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>758909</v>
+        <v>757311</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1983773964846894</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1874297664550677</v>
+        <v>0.1865292587748511</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2099840890409557</v>
+        <v>0.2095421796717119</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1804</v>
@@ -3576,19 +3576,19 @@
         <v>1461842</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1393156</v>
+        <v>1396733</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1529143</v>
+        <v>1541531</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.208123706222804</v>
+        <v>0.2081237062228039</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1983449411609694</v>
+        <v>0.1988541693717116</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2177054764968815</v>
+        <v>0.219469129107305</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>2411929</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2347396</v>
+        <v>2350646</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2470983</v>
+        <v>2471791</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7073556616122798</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6884298346532096</v>
+        <v>0.6893828271916794</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7246746350718716</v>
+        <v>0.7249113844471307</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3847</v>
@@ -3626,19 +3626,19 @@
         <v>2700502</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2654381</v>
+        <v>2656999</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2744124</v>
+        <v>2749391</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7472078554714592</v>
+        <v>0.7472078554714593</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7344465302300357</v>
+        <v>0.7351708699292874</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7592778466843756</v>
+        <v>0.760734995191649</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6191</v>
@@ -3647,19 +3647,19 @@
         <v>5112431</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5038178</v>
+        <v>5042326</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5186497</v>
+        <v>5185899</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7278614514805239</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7172899530865414</v>
+        <v>0.7178804529122534</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7384062234244986</v>
+        <v>0.7383211327823609</v>
       </c>
     </row>
     <row r="45">
